--- a/biology/Botanique/Gossypium_sturtianum/Gossypium_sturtianum.xlsx
+++ b/biology/Botanique/Gossypium_sturtianum/Gossypium_sturtianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gossypium sturtianum (appelée littéralement par les anglophones « rose du désert de Sturt », du nom de son découvreur) est une espèce d'arbuste du genre Gossypium (cotonniers « véritables ») et de la famille des Malvaceae. C'est une espèce endémique de l'Australie que l'on trouve dans tout le continent.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un buisson qui atteint 1 à 2 mètres de haut pour un diamètre équivalent. Il vit une dizaine d'années.
 Les feuilles sont de différentes nuances de vert, rondes et dégagent une odeur forte lorsqu'elles sont écrasées.
@@ -544,7 +558,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante se trouve à l'état sauvage dans une grande partie de l'Australie.
 </t>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,9 +619,11 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a été choisie comme emblème floral par un État australien, le Territoire du Nord[1]. Elle figure, sous une forme stylisée, sur le drapeau de cet État.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a été choisie comme emblème floral par un État australien, le Territoire du Nord. Elle figure, sous une forme stylisée, sur le drapeau de cet État.
 </t>
         </is>
       </c>
